--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ACH_COLOMBIA\ACH_Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA95AC0-D87E-40A8-BCDA-EF4AA341EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="UsuarioAch" sheetId="1" r:id="rId1"/>
-    <sheet name="ITAU_MONETARIA_DEBITO" sheetId="3" r:id="rId2"/>
-    <sheet name="IngresarEntidadFinanciera" sheetId="4" r:id="rId3"/>
+    <sheet name="Usuario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Usuario</t>
   </si>
@@ -35,29 +32,17 @@
     <t>Clave</t>
   </si>
   <si>
-    <t>Archivo Exitoso</t>
+    <t>admin@achcolombia.com.co</t>
   </si>
   <si>
-    <t>C:\ACH_COLOMBIA\ACH_Colombia\Archivos\0001006.001.1</t>
-  </si>
-  <si>
-    <t>Ingresar Entidad</t>
-  </si>
-  <si>
-    <t>CAJA SOCIAL BCSC(BANCAJASO)</t>
-  </si>
-  <si>
-    <t>adminOperatorEV@bancolombia.com.co</t>
-  </si>
-  <si>
-    <t>Ach.2021+$AC</t>
+    <t>Ach.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,15 +51,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Roboto"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,18 +76,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,20 +364,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,72 +385,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="66.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549932B-EB50-4D6A-8AE0-9803519D9B8E}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>